--- a/data/pca/factorExposure/factorExposure_2014-07-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004484192050719333</v>
+        <v>0.01985720991022633</v>
       </c>
       <c r="C2">
-        <v>0.1465080257401986</v>
+        <v>-0.07109424670839387</v>
       </c>
       <c r="D2">
-        <v>-0.03540037554906989</v>
+        <v>0.03419192365494843</v>
       </c>
       <c r="E2">
-        <v>-0.2335270660513523</v>
+        <v>-0.01367603792371354</v>
       </c>
       <c r="F2">
-        <v>0.06996844722200327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01657154113967176</v>
+      </c>
+      <c r="G2">
+        <v>0.1611852565201086</v>
+      </c>
+      <c r="H2">
+        <v>-0.0175099320939227</v>
+      </c>
+      <c r="I2">
+        <v>0.05280370340346551</v>
+      </c>
+      <c r="J2">
+        <v>-0.1134899811378816</v>
+      </c>
+      <c r="K2">
+        <v>0.05581902685671549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01395121576966007</v>
+        <v>0.02113324369752515</v>
       </c>
       <c r="C4">
-        <v>0.1722248675360749</v>
+        <v>-0.140359856191755</v>
       </c>
       <c r="D4">
-        <v>-0.05046578459242489</v>
+        <v>0.06746681144129434</v>
       </c>
       <c r="E4">
-        <v>-0.03868771841310945</v>
+        <v>-0.01145301865751666</v>
       </c>
       <c r="F4">
-        <v>-0.07483729667491774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05762199011631047</v>
+      </c>
+      <c r="G4">
+        <v>0.03538449683296041</v>
+      </c>
+      <c r="H4">
+        <v>0.03668170329204881</v>
+      </c>
+      <c r="I4">
+        <v>-0.0125603058714726</v>
+      </c>
+      <c r="J4">
+        <v>-0.0951050150200326</v>
+      </c>
+      <c r="K4">
+        <v>0.005738378844222607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03743897668579547</v>
+        <v>0.04183712887384339</v>
       </c>
       <c r="C6">
-        <v>0.07135948899358549</v>
+        <v>-0.08577992388960791</v>
       </c>
       <c r="D6">
-        <v>-0.06321319777725265</v>
+        <v>0.02922694681017161</v>
       </c>
       <c r="E6">
-        <v>-0.03639245742123103</v>
+        <v>0.02048713230508034</v>
       </c>
       <c r="F6">
-        <v>0.01005861306793065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01996690136845299</v>
+      </c>
+      <c r="G6">
+        <v>0.04761214226143963</v>
+      </c>
+      <c r="H6">
+        <v>0.04416302159940465</v>
+      </c>
+      <c r="I6">
+        <v>-0.06621329183937327</v>
+      </c>
+      <c r="J6">
+        <v>0.001477494040588857</v>
+      </c>
+      <c r="K6">
+        <v>0.05760704730809343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.02064495711418559</v>
+        <v>0.02096674939965223</v>
       </c>
       <c r="C7">
-        <v>0.08143179109615439</v>
+        <v>-0.07364086467299713</v>
       </c>
       <c r="D7">
-        <v>-0.04759474731699789</v>
+        <v>0.03459299368141054</v>
       </c>
       <c r="E7">
-        <v>0.006223518372474509</v>
+        <v>0.01671614851275575</v>
       </c>
       <c r="F7">
-        <v>0.01076221434485558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.005408592536766602</v>
+      </c>
+      <c r="G7">
+        <v>-0.01552566408740118</v>
+      </c>
+      <c r="H7">
+        <v>0.02975008714979139</v>
+      </c>
+      <c r="I7">
+        <v>-0.003975208635715187</v>
+      </c>
+      <c r="J7">
+        <v>-0.1051534005502198</v>
+      </c>
+      <c r="K7">
+        <v>0.02586565882835851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01141136406881124</v>
+        <v>0.001801758572044074</v>
       </c>
       <c r="C8">
-        <v>0.07255764207751129</v>
+        <v>-0.05999692130722797</v>
       </c>
       <c r="D8">
-        <v>-0.02552033061060467</v>
+        <v>0.04528450060844555</v>
       </c>
       <c r="E8">
-        <v>-0.07972018815831347</v>
+        <v>0.03072845899634527</v>
       </c>
       <c r="F8">
-        <v>-0.01206883658351504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02728674221719925</v>
+      </c>
+      <c r="G8">
+        <v>0.06525711766993454</v>
+      </c>
+      <c r="H8">
+        <v>0.05620434021416419</v>
+      </c>
+      <c r="I8">
+        <v>-0.00732213874450427</v>
+      </c>
+      <c r="J8">
+        <v>-0.02018899255808587</v>
+      </c>
+      <c r="K8">
+        <v>-0.01511484167619159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.008709351723281624</v>
+        <v>0.01316625877295705</v>
       </c>
       <c r="C9">
-        <v>0.1204684114180477</v>
+        <v>-0.09812164026510843</v>
       </c>
       <c r="D9">
-        <v>-0.05774223911643625</v>
+        <v>0.04233060020823214</v>
       </c>
       <c r="E9">
-        <v>0.001316268568894721</v>
+        <v>-0.02211713521582015</v>
       </c>
       <c r="F9">
-        <v>-0.01363436416863627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02392012205875772</v>
+      </c>
+      <c r="G9">
+        <v>0.02394188245008103</v>
+      </c>
+      <c r="H9">
+        <v>0.04395836198516896</v>
+      </c>
+      <c r="I9">
+        <v>0.007400677035843874</v>
+      </c>
+      <c r="J9">
+        <v>-0.1006969360947288</v>
+      </c>
+      <c r="K9">
+        <v>0.01900691957837655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.254868505178986</v>
+        <v>0.2432148325862705</v>
       </c>
       <c r="C10">
-        <v>-0.07840379322285436</v>
+        <v>0.1006622209337992</v>
       </c>
       <c r="D10">
-        <v>0.02939384228333059</v>
+        <v>-0.008276161030497924</v>
       </c>
       <c r="E10">
-        <v>0.02383142485399509</v>
+        <v>0.04999239087382543</v>
       </c>
       <c r="F10">
-        <v>-0.03749202155809696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.002128890795021612</v>
+      </c>
+      <c r="G10">
+        <v>0.01953953258949863</v>
+      </c>
+      <c r="H10">
+        <v>0.03728411320116037</v>
+      </c>
+      <c r="I10">
+        <v>-0.04586088015445824</v>
+      </c>
+      <c r="J10">
+        <v>-0.01940937703513785</v>
+      </c>
+      <c r="K10">
+        <v>-0.1473698842270132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.007193428505539207</v>
+        <v>0.01798597829930847</v>
       </c>
       <c r="C11">
-        <v>0.06639040906898815</v>
+        <v>-0.07764260422425089</v>
       </c>
       <c r="D11">
-        <v>-0.03279456347516029</v>
+        <v>0.04176572294640306</v>
       </c>
       <c r="E11">
-        <v>0.03532122790709424</v>
+        <v>-0.01284179638973983</v>
       </c>
       <c r="F11">
-        <v>-0.00842441998588515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003485414036310038</v>
+      </c>
+      <c r="G11">
+        <v>-0.01083560683002694</v>
+      </c>
+      <c r="H11">
+        <v>0.02051094444659639</v>
+      </c>
+      <c r="I11">
+        <v>0.002928448198776604</v>
+      </c>
+      <c r="J11">
+        <v>-0.02575815566681443</v>
+      </c>
+      <c r="K11">
+        <v>0.02591306456930701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007421184447942438</v>
+        <v>0.01753549113966338</v>
       </c>
       <c r="C12">
-        <v>0.04687454393611622</v>
+        <v>-0.05249715013847332</v>
       </c>
       <c r="D12">
-        <v>-0.03565131038808186</v>
+        <v>0.02697747692858128</v>
       </c>
       <c r="E12">
-        <v>0.03091850992288908</v>
+        <v>-0.008561856151783431</v>
       </c>
       <c r="F12">
-        <v>0.01542613294847124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01768186958060693</v>
+      </c>
+      <c r="G12">
+        <v>0.001032480525740436</v>
+      </c>
+      <c r="H12">
+        <v>0.02196495966708485</v>
+      </c>
+      <c r="I12">
+        <v>-0.01899402512642457</v>
+      </c>
+      <c r="J12">
+        <v>-0.02473415370249828</v>
+      </c>
+      <c r="K12">
+        <v>0.01153792630441718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.007586687008431963</v>
+        <v>0.006731902017580003</v>
       </c>
       <c r="C13">
-        <v>0.1147244243951716</v>
+        <v>-0.1076919548088998</v>
       </c>
       <c r="D13">
-        <v>-0.04820633876767837</v>
+        <v>0.04365585447060535</v>
       </c>
       <c r="E13">
-        <v>-0.06052574666056364</v>
+        <v>-0.003012901280327128</v>
       </c>
       <c r="F13">
-        <v>0.08530290375193932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03458639913911888</v>
+      </c>
+      <c r="G13">
+        <v>0.1581705131206324</v>
+      </c>
+      <c r="H13">
+        <v>-0.03511576760077904</v>
+      </c>
+      <c r="I13">
+        <v>-0.05410382569029323</v>
+      </c>
+      <c r="J13">
+        <v>-0.2346148580523569</v>
+      </c>
+      <c r="K13">
+        <v>-0.186381705080504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01375032626162314</v>
+        <v>0.02162975146110057</v>
       </c>
       <c r="C14">
-        <v>0.08485212634222594</v>
+        <v>-0.07356209535753182</v>
       </c>
       <c r="D14">
-        <v>-0.04970133227020555</v>
+        <v>0.04712071320657803</v>
       </c>
       <c r="E14">
-        <v>0.006532874922664066</v>
+        <v>0.01282494764360867</v>
       </c>
       <c r="F14">
-        <v>0.04386855505584934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03585650327458881</v>
+      </c>
+      <c r="G14">
+        <v>0.02511145158969613</v>
+      </c>
+      <c r="H14">
+        <v>0.09388355836610864</v>
+      </c>
+      <c r="I14">
+        <v>-0.07394093811060469</v>
+      </c>
+      <c r="J14">
+        <v>-0.1825602518922868</v>
+      </c>
+      <c r="K14">
+        <v>0.01485872216490362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.004204608539752185</v>
+        <v>0.003360214546568047</v>
       </c>
       <c r="C15">
-        <v>0.07846640443712555</v>
+        <v>-0.06996854736743598</v>
       </c>
       <c r="D15">
-        <v>-0.02814808640747128</v>
+        <v>0.03342562266255582</v>
       </c>
       <c r="E15">
-        <v>-0.01613344204660204</v>
+        <v>-0.006509145773248013</v>
       </c>
       <c r="F15">
-        <v>-0.00337114314969223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03551721227318269</v>
+      </c>
+      <c r="G15">
+        <v>0.01667134249686547</v>
+      </c>
+      <c r="H15">
+        <v>0.05163044424420359</v>
+      </c>
+      <c r="I15">
+        <v>-0.02398954213063521</v>
+      </c>
+      <c r="J15">
+        <v>-0.06594421499020972</v>
+      </c>
+      <c r="K15">
+        <v>0.02246622299636108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.007941803960413741</v>
+        <v>0.01683574926778049</v>
       </c>
       <c r="C16">
-        <v>0.05354975826365865</v>
+        <v>-0.05941394536640887</v>
       </c>
       <c r="D16">
-        <v>-0.02522775051936816</v>
+        <v>0.02745989514935435</v>
       </c>
       <c r="E16">
-        <v>0.02192150672948687</v>
+        <v>-0.007380261376079716</v>
       </c>
       <c r="F16">
-        <v>0.001262841924625994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0001755066024723375</v>
+      </c>
+      <c r="G16">
+        <v>-0.006037704185793624</v>
+      </c>
+      <c r="H16">
+        <v>0.01120835210539098</v>
+      </c>
+      <c r="I16">
+        <v>-0.004349018617307523</v>
+      </c>
+      <c r="J16">
+        <v>-0.02180353537241144</v>
+      </c>
+      <c r="K16">
+        <v>0.02025983340835484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01072661062507083</v>
+        <v>0.01581453805576111</v>
       </c>
       <c r="C20">
-        <v>0.09542921850299391</v>
+        <v>-0.0835380228267984</v>
       </c>
       <c r="D20">
-        <v>-0.03814432445752852</v>
+        <v>0.02756390614418569</v>
       </c>
       <c r="E20">
-        <v>0.05203672709637033</v>
+        <v>0.002886520426725035</v>
       </c>
       <c r="F20">
-        <v>0.001334937774664767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01470359451077366</v>
+      </c>
+      <c r="G20">
+        <v>-0.01968109527652126</v>
+      </c>
+      <c r="H20">
+        <v>0.05133214749087479</v>
+      </c>
+      <c r="I20">
+        <v>-0.02622790562635585</v>
+      </c>
+      <c r="J20">
+        <v>-0.05551656264560049</v>
+      </c>
+      <c r="K20">
+        <v>0.01444972513072837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.007642280375722441</v>
+        <v>0.01421472034998516</v>
       </c>
       <c r="C21">
-        <v>0.07717937822665548</v>
+        <v>-0.06944898180863429</v>
       </c>
       <c r="D21">
-        <v>-0.002091351389357561</v>
+        <v>0.01867162049118115</v>
       </c>
       <c r="E21">
-        <v>-0.02348862107971328</v>
+        <v>0.02214327565122573</v>
       </c>
       <c r="F21">
-        <v>0.1013082092729291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06999450554043601</v>
+      </c>
+      <c r="G21">
+        <v>0.06259013138695919</v>
+      </c>
+      <c r="H21">
+        <v>0.06559458785235187</v>
+      </c>
+      <c r="I21">
+        <v>-0.004314779746708441</v>
+      </c>
+      <c r="J21">
+        <v>-0.1234163254586836</v>
+      </c>
+      <c r="K21">
+        <v>-0.01335282844205981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.002086378146804847</v>
+        <v>0.008345723439275431</v>
       </c>
       <c r="C22">
-        <v>0.2578077870776124</v>
+        <v>-0.16675665802175</v>
       </c>
       <c r="D22">
-        <v>0.08250167041768636</v>
+        <v>0.020889758943992</v>
       </c>
       <c r="E22">
-        <v>-0.3638001953714656</v>
+        <v>0.009116177550902356</v>
       </c>
       <c r="F22">
-        <v>-0.2445710165190624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3389082572659562</v>
+      </c>
+      <c r="G22">
+        <v>0.3915625541531159</v>
+      </c>
+      <c r="H22">
+        <v>-0.271791461254631</v>
+      </c>
+      <c r="I22">
+        <v>0.01097770448063284</v>
+      </c>
+      <c r="J22">
+        <v>0.2190464264326806</v>
+      </c>
+      <c r="K22">
+        <v>0.01366163590412868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.001193355765842388</v>
+        <v>0.01349584661338007</v>
       </c>
       <c r="C23">
-        <v>0.2611359097451763</v>
+        <v>-0.1699477211345074</v>
       </c>
       <c r="D23">
-        <v>0.08732906902549209</v>
+        <v>0.02071097582444632</v>
       </c>
       <c r="E23">
-        <v>-0.3579220131532256</v>
+        <v>0.005892904269441314</v>
       </c>
       <c r="F23">
-        <v>-0.2417184457844615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3286911679622936</v>
+      </c>
+      <c r="G23">
+        <v>0.3814879964055697</v>
+      </c>
+      <c r="H23">
+        <v>-0.2567779204190334</v>
+      </c>
+      <c r="I23">
+        <v>0.0121866737557252</v>
+      </c>
+      <c r="J23">
+        <v>0.2014960104874097</v>
+      </c>
+      <c r="K23">
+        <v>0.01865269721368332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005802064742477942</v>
+        <v>0.01742303616067464</v>
       </c>
       <c r="C24">
-        <v>0.0597389912410168</v>
+        <v>-0.06304513325132696</v>
       </c>
       <c r="D24">
-        <v>-0.04330191967244443</v>
+        <v>0.0410382619955762</v>
       </c>
       <c r="E24">
-        <v>0.02859094212967176</v>
+        <v>-0.01174691772898009</v>
       </c>
       <c r="F24">
-        <v>-0.002732609882977277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001661778291740267</v>
+      </c>
+      <c r="G24">
+        <v>-0.007002157196580166</v>
+      </c>
+      <c r="H24">
+        <v>0.0194362225655741</v>
+      </c>
+      <c r="I24">
+        <v>-0.01097576345889392</v>
+      </c>
+      <c r="J24">
+        <v>-0.03872460148075325</v>
+      </c>
+      <c r="K24">
+        <v>0.02073427269543184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007593872170516917</v>
+        <v>0.02228424988887645</v>
       </c>
       <c r="C25">
-        <v>0.06436847256074582</v>
+        <v>-0.06735843512841076</v>
       </c>
       <c r="D25">
-        <v>-0.02333504749083837</v>
+        <v>0.03458777221239593</v>
       </c>
       <c r="E25">
-        <v>0.03293057883412582</v>
+        <v>-0.01784774193524762</v>
       </c>
       <c r="F25">
-        <v>0.004535782330593053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.004871481703327282</v>
+      </c>
+      <c r="G25">
+        <v>-0.004933843303454702</v>
+      </c>
+      <c r="H25">
+        <v>0.02091418034965522</v>
+      </c>
+      <c r="I25">
+        <v>-0.002148764896652941</v>
+      </c>
+      <c r="J25">
+        <v>-0.03452199608233492</v>
+      </c>
+      <c r="K25">
+        <v>0.01029792029418602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01197210559447945</v>
+        <v>0.02276826874653081</v>
       </c>
       <c r="C26">
-        <v>0.04792782446355007</v>
+        <v>-0.05297937307639533</v>
       </c>
       <c r="D26">
-        <v>-0.07980289530919531</v>
+        <v>0.0619240080360732</v>
       </c>
       <c r="E26">
-        <v>0.02730036532611473</v>
+        <v>-0.008928808882684566</v>
       </c>
       <c r="F26">
-        <v>0.03071266308580316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.005696732710899719</v>
+      </c>
+      <c r="G26">
+        <v>-0.01224406198121298</v>
+      </c>
+      <c r="H26">
+        <v>0.04661607280962906</v>
+      </c>
+      <c r="I26">
+        <v>0.02695117630821527</v>
+      </c>
+      <c r="J26">
+        <v>-0.1123747545066021</v>
+      </c>
+      <c r="K26">
+        <v>0.06994320256271883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3440008211817042</v>
+        <v>0.304782093739455</v>
       </c>
       <c r="C28">
-        <v>-0.09908316027802981</v>
+        <v>0.1237033052040179</v>
       </c>
       <c r="D28">
-        <v>0.03058105854528423</v>
+        <v>-0.03339571837513891</v>
       </c>
       <c r="E28">
-        <v>-0.0005105087212071927</v>
+        <v>0.006536655078216256</v>
       </c>
       <c r="F28">
-        <v>-0.03269185560884687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01563580961479466</v>
+      </c>
+      <c r="G28">
+        <v>0.05032088638523944</v>
+      </c>
+      <c r="H28">
+        <v>0.04171336311149974</v>
+      </c>
+      <c r="I28">
+        <v>0.09769677136152485</v>
+      </c>
+      <c r="J28">
+        <v>-0.01838612123868243</v>
+      </c>
+      <c r="K28">
+        <v>-0.2049681509132403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007441390800449336</v>
+        <v>0.0177840371165752</v>
       </c>
       <c r="C29">
-        <v>0.08063595693546406</v>
+        <v>-0.082143145600531</v>
       </c>
       <c r="D29">
-        <v>-0.05456703262465658</v>
+        <v>0.04808512761912568</v>
       </c>
       <c r="E29">
-        <v>0.02461935159338371</v>
+        <v>-0.01248262879716778</v>
       </c>
       <c r="F29">
-        <v>0.03771489520411024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03977176265370382</v>
+      </c>
+      <c r="G29">
+        <v>0.02296627520217109</v>
+      </c>
+      <c r="H29">
+        <v>0.1212818409509284</v>
+      </c>
+      <c r="I29">
+        <v>-0.1266689504746777</v>
+      </c>
+      <c r="J29">
+        <v>-0.2606073996611029</v>
+      </c>
+      <c r="K29">
+        <v>-0.003233124063193284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02408940240487905</v>
+        <v>0.03760475089306519</v>
       </c>
       <c r="C30">
-        <v>0.1647154854561896</v>
+        <v>-0.143223089976586</v>
       </c>
       <c r="D30">
-        <v>-0.06448120221863597</v>
+        <v>0.05482682025796524</v>
       </c>
       <c r="E30">
-        <v>-0.03399135424013355</v>
+        <v>-0.0001254608467496206</v>
       </c>
       <c r="F30">
-        <v>-0.02009252277595555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03995340892225407</v>
+      </c>
+      <c r="G30">
+        <v>0.03590619703873156</v>
+      </c>
+      <c r="H30">
+        <v>0.03906901038888091</v>
+      </c>
+      <c r="I30">
+        <v>-0.03035288090350034</v>
+      </c>
+      <c r="J30">
+        <v>-0.0294777563018439</v>
+      </c>
+      <c r="K30">
+        <v>0.06323593788011511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002777245537901062</v>
+        <v>0.01557260696736998</v>
       </c>
       <c r="C31">
-        <v>0.05654192451388485</v>
+        <v>-0.07596948074409993</v>
       </c>
       <c r="D31">
-        <v>-0.03422143821923387</v>
+        <v>0.04351397370805414</v>
       </c>
       <c r="E31">
-        <v>0.01340630456869695</v>
+        <v>-0.002151354649148056</v>
       </c>
       <c r="F31">
-        <v>0.00162820374566456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01028022946230612</v>
+      </c>
+      <c r="G31">
+        <v>0.006361953207144671</v>
+      </c>
+      <c r="H31">
+        <v>0.03472146901250517</v>
+      </c>
+      <c r="I31">
+        <v>0.02157852020228416</v>
+      </c>
+      <c r="J31">
+        <v>-0.02887945339626232</v>
+      </c>
+      <c r="K31">
+        <v>0.01034148767549628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01183616023765923</v>
+        <v>0.02215005273405427</v>
       </c>
       <c r="C32">
-        <v>0.08066528384377329</v>
+        <v>-0.05068795251766624</v>
       </c>
       <c r="D32">
-        <v>-0.01493795624104721</v>
+        <v>0.02952035435873112</v>
       </c>
       <c r="E32">
-        <v>-0.1603947488043696</v>
+        <v>-0.01025483428001852</v>
       </c>
       <c r="F32">
-        <v>0.01734552519836156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.002721258110836582</v>
+      </c>
+      <c r="G32">
+        <v>0.107897983098909</v>
+      </c>
+      <c r="H32">
+        <v>0.0269592351889955</v>
+      </c>
+      <c r="I32">
+        <v>-0.03279110148402785</v>
+      </c>
+      <c r="J32">
+        <v>-0.1790084250823596</v>
+      </c>
+      <c r="K32">
+        <v>-0.2314696684960942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009842209527929215</v>
+        <v>0.01757904680471611</v>
       </c>
       <c r="C33">
-        <v>0.09401091999646202</v>
+        <v>-0.0997445050072546</v>
       </c>
       <c r="D33">
-        <v>-0.05996957442035734</v>
+        <v>0.05238707304769574</v>
       </c>
       <c r="E33">
-        <v>0.02229168166502611</v>
+        <v>0.0002424614462631931</v>
       </c>
       <c r="F33">
-        <v>0.003635585313404934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01977870515131804</v>
+      </c>
+      <c r="G33">
+        <v>0.0138112272555869</v>
+      </c>
+      <c r="H33">
+        <v>0.02317875619865397</v>
+      </c>
+      <c r="I33">
+        <v>-0.02248546648212024</v>
+      </c>
+      <c r="J33">
+        <v>-0.05988134426991006</v>
+      </c>
+      <c r="K33">
+        <v>-0.01708245223720183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005230090317146992</v>
+        <v>0.01760434970164794</v>
       </c>
       <c r="C34">
-        <v>0.04777652767457922</v>
+        <v>-0.04913453441002978</v>
       </c>
       <c r="D34">
-        <v>-0.02353044220624544</v>
+        <v>0.02162873641429781</v>
       </c>
       <c r="E34">
-        <v>0.01822765629866795</v>
+        <v>-0.01581223730750491</v>
       </c>
       <c r="F34">
-        <v>0.02207739151284367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.006069319841483521</v>
+      </c>
+      <c r="G34">
+        <v>-0.00658821038881736</v>
+      </c>
+      <c r="H34">
+        <v>0.02164072913242293</v>
+      </c>
+      <c r="I34">
+        <v>-0.02351632269772634</v>
+      </c>
+      <c r="J34">
+        <v>0.003255376033076028</v>
+      </c>
+      <c r="K34">
+        <v>0.01063923146210483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002809209871005065</v>
+        <v>0.01191915967693176</v>
       </c>
       <c r="C35">
-        <v>0.03084886199405759</v>
+        <v>-0.0485597787564064</v>
       </c>
       <c r="D35">
-        <v>-0.01429580366739847</v>
+        <v>0.02302102785412777</v>
       </c>
       <c r="E35">
-        <v>0.008255248806287935</v>
+        <v>0.00417887166417874</v>
       </c>
       <c r="F35">
-        <v>0.01157092710481185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.004226343471005957</v>
+      </c>
+      <c r="G35">
+        <v>0.01063402357971352</v>
+      </c>
+      <c r="H35">
+        <v>0.08328414182038812</v>
+      </c>
+      <c r="I35">
+        <v>-0.04846850337708071</v>
+      </c>
+      <c r="J35">
+        <v>-0.1278298957112428</v>
+      </c>
+      <c r="K35">
+        <v>-0.01511040053070742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008767175774926328</v>
+        <v>0.01431992020534398</v>
       </c>
       <c r="C36">
-        <v>0.04788964609548844</v>
+        <v>-0.04565670415138763</v>
       </c>
       <c r="D36">
-        <v>-0.05377480530638912</v>
+        <v>0.04162545701208845</v>
       </c>
       <c r="E36">
-        <v>0.01806373701784913</v>
+        <v>0.006515641551535982</v>
       </c>
       <c r="F36">
-        <v>0.007667608583317112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01056084452103617</v>
+      </c>
+      <c r="G36">
+        <v>0.01255934983899713</v>
+      </c>
+      <c r="H36">
+        <v>0.03400359473395964</v>
+      </c>
+      <c r="I36">
+        <v>0.0186167563954486</v>
+      </c>
+      <c r="J36">
+        <v>-0.0839899214582113</v>
+      </c>
+      <c r="K36">
+        <v>0.02283819224000514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02683122058753771</v>
+        <v>0.01163806249079471</v>
       </c>
       <c r="C38">
-        <v>0.04465752107297651</v>
+        <v>-0.05886111766150119</v>
       </c>
       <c r="D38">
-        <v>-0.02977717813722549</v>
+        <v>0.03848493003797947</v>
       </c>
       <c r="E38">
-        <v>0.02992910462383197</v>
+        <v>0.0273775989287963</v>
       </c>
       <c r="F38">
-        <v>-0.0005011252026151608</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03545833615967518</v>
+      </c>
+      <c r="G38">
+        <v>-0.001247379836941302</v>
+      </c>
+      <c r="H38">
+        <v>0.0419728974726768</v>
+      </c>
+      <c r="I38">
+        <v>-0.02484757739227778</v>
+      </c>
+      <c r="J38">
+        <v>-0.07556586281402429</v>
+      </c>
+      <c r="K38">
+        <v>-0.06582536770011969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.004937298888858302</v>
+        <v>0.02624932496250989</v>
       </c>
       <c r="C39">
-        <v>0.1226098212381873</v>
+        <v>-0.1294015669447335</v>
       </c>
       <c r="D39">
-        <v>-0.05971688796540858</v>
+        <v>0.06119314919669092</v>
       </c>
       <c r="E39">
-        <v>0.0233120572857523</v>
+        <v>-0.002797098544533885</v>
       </c>
       <c r="F39">
-        <v>0.02404418660484373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01111328497567688</v>
+      </c>
+      <c r="G39">
+        <v>-0.003933546626416201</v>
+      </c>
+      <c r="H39">
+        <v>0.04579725834118041</v>
+      </c>
+      <c r="I39">
+        <v>-0.0445725595829392</v>
+      </c>
+      <c r="J39">
+        <v>-0.01987181030762641</v>
+      </c>
+      <c r="K39">
+        <v>0.09674106511320557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01505635778133269</v>
+        <v>0.0225179650183017</v>
       </c>
       <c r="C40">
-        <v>0.04921917770332396</v>
+        <v>-0.07505948898433112</v>
       </c>
       <c r="D40">
-        <v>-0.015942915364028</v>
+        <v>0.03611138137336476</v>
       </c>
       <c r="E40">
-        <v>-0.03292093725003661</v>
+        <v>-0.006637112856335169</v>
       </c>
       <c r="F40">
-        <v>-0.02740749432286233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.007195254674672356</v>
+      </c>
+      <c r="G40">
+        <v>0.02325100463338846</v>
+      </c>
+      <c r="H40">
+        <v>0.002818157886426767</v>
+      </c>
+      <c r="I40">
+        <v>-0.1089397839391706</v>
+      </c>
+      <c r="J40">
+        <v>-0.09134913665332929</v>
+      </c>
+      <c r="K40">
+        <v>-0.03072064602550735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01181266623929722</v>
+        <v>0.02301354832149284</v>
       </c>
       <c r="C41">
-        <v>0.02488457523838598</v>
+        <v>-0.0467773093811308</v>
       </c>
       <c r="D41">
-        <v>-0.003106672982148754</v>
+        <v>0.01664904694478824</v>
       </c>
       <c r="E41">
-        <v>0.01547572378914298</v>
+        <v>-0.002300481139687216</v>
       </c>
       <c r="F41">
-        <v>0.001613156405924985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004298547309695939</v>
+      </c>
+      <c r="G41">
+        <v>-0.01060796071156975</v>
+      </c>
+      <c r="H41">
+        <v>0.009835765338081391</v>
+      </c>
+      <c r="I41">
+        <v>0.007163212926174062</v>
+      </c>
+      <c r="J41">
+        <v>-0.02705080864830187</v>
+      </c>
+      <c r="K41">
+        <v>-0.02930214561469387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006544424191222387</v>
+        <v>0.02027550160668466</v>
       </c>
       <c r="C43">
-        <v>0.02645759072161653</v>
+        <v>-0.0459320613273549</v>
       </c>
       <c r="D43">
-        <v>-0.02346741342839354</v>
+        <v>0.02778977733050667</v>
       </c>
       <c r="E43">
-        <v>0.009134227445752124</v>
+        <v>-0.0002928930893919589</v>
       </c>
       <c r="F43">
-        <v>-0.004100412700322281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008589168076161618</v>
+      </c>
+      <c r="G43">
+        <v>-0.009234224431474399</v>
+      </c>
+      <c r="H43">
+        <v>0.01733723828692604</v>
+      </c>
+      <c r="I43">
+        <v>0.0003711258925373561</v>
+      </c>
+      <c r="J43">
+        <v>-0.0378765267940328</v>
+      </c>
+      <c r="K43">
+        <v>-0.001385443041390435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.009598174965379076</v>
+        <v>0.01752241213389264</v>
       </c>
       <c r="C44">
-        <v>0.1097228145128074</v>
+        <v>-0.09624054447317715</v>
       </c>
       <c r="D44">
-        <v>-0.04140743158982611</v>
+        <v>0.06071653798678054</v>
       </c>
       <c r="E44">
-        <v>-0.03436110308927653</v>
+        <v>0.01865381433239749</v>
       </c>
       <c r="F44">
-        <v>-0.03842065473390766</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05400322729453794</v>
+      </c>
+      <c r="G44">
+        <v>0.03784534842255397</v>
+      </c>
+      <c r="H44">
+        <v>-0.0007845173360334311</v>
+      </c>
+      <c r="I44">
+        <v>-0.0436005486739437</v>
+      </c>
+      <c r="J44">
+        <v>-0.05952337597889951</v>
+      </c>
+      <c r="K44">
+        <v>0.06894968358526368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004791069029116584</v>
+        <v>0.006695294158904262</v>
       </c>
       <c r="C46">
-        <v>0.07240423984187269</v>
+        <v>-0.06907930250767357</v>
       </c>
       <c r="D46">
-        <v>-0.06404536761193483</v>
+        <v>0.02823694453354893</v>
       </c>
       <c r="E46">
-        <v>0.004586690902332321</v>
+        <v>0.01810665151330103</v>
       </c>
       <c r="F46">
-        <v>0.02060723470763693</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01771323888103908</v>
+      </c>
+      <c r="G46">
+        <v>-0.003741958449510707</v>
+      </c>
+      <c r="H46">
+        <v>0.02091898204644787</v>
+      </c>
+      <c r="I46">
+        <v>-0.009278469413478449</v>
+      </c>
+      <c r="J46">
+        <v>-0.0988798401230928</v>
+      </c>
+      <c r="K46">
+        <v>0.01169107651393186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.009189412508174691</v>
+        <v>0.0215366723576448</v>
       </c>
       <c r="C47">
-        <v>0.05915042798944396</v>
+        <v>-0.06988024254730782</v>
       </c>
       <c r="D47">
-        <v>-0.04458908568084843</v>
+        <v>0.04861448567174169</v>
       </c>
       <c r="E47">
-        <v>0.03808947831573057</v>
+        <v>-0.01394143541583235</v>
       </c>
       <c r="F47">
-        <v>0.0384559973366143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003837978912904052</v>
+      </c>
+      <c r="G47">
+        <v>-0.003623567278498393</v>
+      </c>
+      <c r="H47">
+        <v>0.03388174664593838</v>
+      </c>
+      <c r="I47">
+        <v>0.005633611055465107</v>
+      </c>
+      <c r="J47">
+        <v>-0.06426793710159177</v>
+      </c>
+      <c r="K47">
+        <v>-0.01972230126677685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01085231542382717</v>
+        <v>0.01730682120393373</v>
       </c>
       <c r="C48">
-        <v>0.05281169594308215</v>
+        <v>-0.04609411136692655</v>
       </c>
       <c r="D48">
-        <v>-0.06677870577969588</v>
+        <v>0.05348875005962722</v>
       </c>
       <c r="E48">
-        <v>0.03100103240593398</v>
+        <v>-0.01601586915906427</v>
       </c>
       <c r="F48">
-        <v>0.005216865845152517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02082668508957752</v>
+      </c>
+      <c r="G48">
+        <v>0.005483834366650088</v>
+      </c>
+      <c r="H48">
+        <v>0.04906071830590854</v>
+      </c>
+      <c r="I48">
+        <v>0.0329132881699991</v>
+      </c>
+      <c r="J48">
+        <v>-0.1118639743519728</v>
+      </c>
+      <c r="K48">
+        <v>0.05163611520487373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02452174380786773</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05302485085008855</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01350590092803567</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03357358882184912</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03234526522063236</v>
+      </c>
+      <c r="G49">
+        <v>-0.0686043398352849</v>
+      </c>
+      <c r="H49">
+        <v>0.03498243621297032</v>
+      </c>
+      <c r="I49">
+        <v>-0.09256720521731626</v>
+      </c>
+      <c r="J49">
+        <v>0.09461777633836545</v>
+      </c>
+      <c r="K49">
+        <v>0.05426044591107987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003503632240668348</v>
+        <v>0.01580313416178886</v>
       </c>
       <c r="C50">
-        <v>0.05992524029540183</v>
+        <v>-0.07411958381424927</v>
       </c>
       <c r="D50">
-        <v>-0.03480578485869913</v>
+        <v>0.03351996590930312</v>
       </c>
       <c r="E50">
-        <v>0.00119504112266953</v>
+        <v>-0.009401726700309658</v>
       </c>
       <c r="F50">
-        <v>-0.004996782564889938</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01963923124448249</v>
+      </c>
+      <c r="G50">
+        <v>0.007937685233208012</v>
+      </c>
+      <c r="H50">
+        <v>0.04741001399006794</v>
+      </c>
+      <c r="I50">
+        <v>-0.002699717320651875</v>
+      </c>
+      <c r="J50">
+        <v>-0.04777759519221231</v>
+      </c>
+      <c r="K50">
+        <v>-0.04912783763501036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.003106441147239431</v>
+        <v>-0.005421140885392284</v>
       </c>
       <c r="C51">
-        <v>0.07429610858106622</v>
+        <v>-0.03396456677583955</v>
       </c>
       <c r="D51">
-        <v>-0.04153681422181266</v>
+        <v>0.02417956276387766</v>
       </c>
       <c r="E51">
-        <v>-0.03147285995014382</v>
+        <v>0.024432523757202</v>
       </c>
       <c r="F51">
-        <v>-0.008982047304486601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007059445049558013</v>
+      </c>
+      <c r="G51">
+        <v>0.02368336588375392</v>
+      </c>
+      <c r="H51">
+        <v>0.02545723220835122</v>
+      </c>
+      <c r="I51">
+        <v>-0.01015254989784723</v>
+      </c>
+      <c r="J51">
+        <v>-0.1060690084980461</v>
+      </c>
+      <c r="K51">
+        <v>0.02824539344333291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03152519415793687</v>
+        <v>0.06234227417373655</v>
       </c>
       <c r="C53">
-        <v>0.1050863009821349</v>
+        <v>-0.1268900236808968</v>
       </c>
       <c r="D53">
-        <v>-0.059127797008926</v>
+        <v>0.05916639580317746</v>
       </c>
       <c r="E53">
-        <v>0.0917374131679202</v>
+        <v>-0.0155198362803019</v>
       </c>
       <c r="F53">
-        <v>0.001021781339929498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04603187584307194</v>
+      </c>
+      <c r="G53">
+        <v>-0.04145357509542152</v>
+      </c>
+      <c r="H53">
+        <v>0.006896861302220419</v>
+      </c>
+      <c r="I53">
+        <v>0.09419388728554909</v>
+      </c>
+      <c r="J53">
+        <v>0.04746241507012346</v>
+      </c>
+      <c r="K53">
+        <v>-0.0279310356920037</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.006054155281201731</v>
+        <v>0.01727980883069818</v>
       </c>
       <c r="C54">
-        <v>0.07324563986047461</v>
+        <v>-0.07075149832356747</v>
       </c>
       <c r="D54">
-        <v>-0.02006482828557442</v>
+        <v>0.01230304350524169</v>
       </c>
       <c r="E54">
-        <v>0.04127408133865624</v>
+        <v>-0.006095588099343051</v>
       </c>
       <c r="F54">
-        <v>-0.004275743044650965</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0009976847955716168</v>
+      </c>
+      <c r="G54">
+        <v>-0.001919974176833967</v>
+      </c>
+      <c r="H54">
+        <v>0.01923436061713964</v>
+      </c>
+      <c r="I54">
+        <v>-0.002074032044321065</v>
+      </c>
+      <c r="J54">
+        <v>-0.0589063927013216</v>
+      </c>
+      <c r="K54">
+        <v>0.02879616453426897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01560161393611215</v>
+        <v>0.03151027977237265</v>
       </c>
       <c r="C55">
-        <v>0.05685022685413699</v>
+        <v>-0.07906623356539796</v>
       </c>
       <c r="D55">
-        <v>-0.05831186145733254</v>
+        <v>0.05387673236173363</v>
       </c>
       <c r="E55">
-        <v>0.06596426082694763</v>
+        <v>-0.01787238722305834</v>
       </c>
       <c r="F55">
-        <v>0.02493534815839721</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02669989248318428</v>
+      </c>
+      <c r="G55">
+        <v>-0.03068396517129029</v>
+      </c>
+      <c r="H55">
+        <v>-0.0003321120958107534</v>
+      </c>
+      <c r="I55">
+        <v>0.03944697893473631</v>
+      </c>
+      <c r="J55">
+        <v>0.005462846178997816</v>
+      </c>
+      <c r="K55">
+        <v>0.006532739829167762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01339141959018072</v>
+        <v>0.05544252413626303</v>
       </c>
       <c r="C56">
-        <v>0.1345322875720577</v>
+        <v>-0.1551332990005798</v>
       </c>
       <c r="D56">
-        <v>-0.06717278599599054</v>
+        <v>0.08525925976016682</v>
       </c>
       <c r="E56">
-        <v>0.0585422977589113</v>
+        <v>-0.03363790033100128</v>
       </c>
       <c r="F56">
-        <v>0.0194411385348084</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09410295569372482</v>
+      </c>
+      <c r="G56">
+        <v>-0.05992231055622965</v>
+      </c>
+      <c r="H56">
+        <v>0.0199202219226199</v>
+      </c>
+      <c r="I56">
+        <v>0.1745340395649754</v>
+      </c>
+      <c r="J56">
+        <v>0.08688603555824101</v>
+      </c>
+      <c r="K56">
+        <v>-0.0006058133905203521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02182375281111638</v>
+        <v>0.01702832421597873</v>
       </c>
       <c r="C58">
-        <v>0.2720048972097519</v>
+        <v>-0.1654170302952916</v>
       </c>
       <c r="D58">
-        <v>0.02510339128312418</v>
+        <v>0.04473723766654936</v>
       </c>
       <c r="E58">
-        <v>-0.1949839881834114</v>
+        <v>0.08364532316326079</v>
       </c>
       <c r="F58">
-        <v>-0.1590745606252212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2076900018425472</v>
+      </c>
+      <c r="G58">
+        <v>0.2731787727462036</v>
+      </c>
+      <c r="H58">
+        <v>0.006564600211965745</v>
+      </c>
+      <c r="I58">
+        <v>0.0626132114497514</v>
+      </c>
+      <c r="J58">
+        <v>-0.1430837485816728</v>
+      </c>
+      <c r="K58">
+        <v>-0.03162547052650888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2924870922984957</v>
+        <v>0.2871326331373007</v>
       </c>
       <c r="C59">
-        <v>-0.001738626061652555</v>
+        <v>0.05777369425868302</v>
       </c>
       <c r="D59">
-        <v>0.01227218078179717</v>
+        <v>-0.009511774244407651</v>
       </c>
       <c r="E59">
-        <v>-0.05801936816652941</v>
+        <v>0.007656460738817798</v>
       </c>
       <c r="F59">
-        <v>0.04667081801656212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01082709946892848</v>
+      </c>
+      <c r="G59">
+        <v>0.06131774051440245</v>
+      </c>
+      <c r="H59">
+        <v>-0.02121136441349287</v>
+      </c>
+      <c r="I59">
+        <v>0.005379871750341831</v>
+      </c>
+      <c r="J59">
+        <v>0.006600097541430131</v>
+      </c>
+      <c r="K59">
+        <v>-0.03428716460568236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1263685959405169</v>
+        <v>0.158540937730585</v>
       </c>
       <c r="C60">
-        <v>0.1489557925749853</v>
+        <v>-0.1623516668302822</v>
       </c>
       <c r="D60">
-        <v>-0.06350249887018512</v>
+        <v>0.03502211136607487</v>
       </c>
       <c r="E60">
-        <v>0.1524763152268484</v>
+        <v>-0.08548257922694465</v>
       </c>
       <c r="F60">
-        <v>0.222298491810026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1137122156042751</v>
+      </c>
+      <c r="G60">
+        <v>-0.1089016945328018</v>
+      </c>
+      <c r="H60">
+        <v>-0.2380338495073883</v>
+      </c>
+      <c r="I60">
+        <v>-0.2084847848397916</v>
+      </c>
+      <c r="J60">
+        <v>0.09632712845750481</v>
+      </c>
+      <c r="K60">
+        <v>0.04649559321937624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006535186663996921</v>
+        <v>0.02671780360576848</v>
       </c>
       <c r="C61">
-        <v>0.08740474463361758</v>
+        <v>-0.09905687492027221</v>
       </c>
       <c r="D61">
-        <v>-0.07101447620073992</v>
+        <v>0.0548247887429619</v>
       </c>
       <c r="E61">
-        <v>0.04869872718981409</v>
+        <v>-0.01174961761490037</v>
       </c>
       <c r="F61">
-        <v>0.02949281405926362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01435674725457483</v>
+      </c>
+      <c r="G61">
+        <v>-0.02358146202489169</v>
+      </c>
+      <c r="H61">
+        <v>0.04963769788120191</v>
+      </c>
+      <c r="I61">
+        <v>-0.02592310708175107</v>
+      </c>
+      <c r="J61">
+        <v>-0.02729186574171178</v>
+      </c>
+      <c r="K61">
+        <v>0.03484117853333528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002351021636968103</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01513492641533287</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.004268887042751931</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.0287367039260495</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02198145664576148</v>
+      </c>
+      <c r="G62">
+        <v>0.007140529583457243</v>
+      </c>
+      <c r="H62">
+        <v>0.009853602541054296</v>
+      </c>
+      <c r="I62">
+        <v>-0.0219639554247141</v>
+      </c>
+      <c r="J62">
+        <v>-0.0162557940761237</v>
+      </c>
+      <c r="K62">
+        <v>-0.006316752505836311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0009554834917384898</v>
+        <v>0.02695111187985868</v>
       </c>
       <c r="C63">
-        <v>0.05328147586773482</v>
+        <v>-0.06080288766045365</v>
       </c>
       <c r="D63">
-        <v>-0.04541101422698565</v>
+        <v>0.06016960439187208</v>
       </c>
       <c r="E63">
-        <v>0.01343285233457581</v>
+        <v>-0.007370583012572863</v>
       </c>
       <c r="F63">
-        <v>-0.006329642546620562</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.007448736712833267</v>
+      </c>
+      <c r="G63">
+        <v>-0.005162426287950388</v>
+      </c>
+      <c r="H63">
+        <v>0.04801595328399969</v>
+      </c>
+      <c r="I63">
+        <v>0.001139633034154664</v>
+      </c>
+      <c r="J63">
+        <v>-0.04488468633549553</v>
+      </c>
+      <c r="K63">
+        <v>0.02001257311602288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.003367959359433456</v>
+        <v>0.01725960384473878</v>
       </c>
       <c r="C64">
-        <v>0.09074754981165459</v>
+        <v>-0.09026974766290267</v>
       </c>
       <c r="D64">
-        <v>-0.08017930200845094</v>
+        <v>0.03697487227733873</v>
       </c>
       <c r="E64">
-        <v>0.04293759424937908</v>
+        <v>-0.02016564698873425</v>
       </c>
       <c r="F64">
-        <v>-0.01238956525625088</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03995389422155195</v>
+      </c>
+      <c r="G64">
+        <v>0.00948819825365994</v>
+      </c>
+      <c r="H64">
+        <v>0.002721158687065384</v>
+      </c>
+      <c r="I64">
+        <v>-0.03895521244316985</v>
+      </c>
+      <c r="J64">
+        <v>-0.03988970347946339</v>
+      </c>
+      <c r="K64">
+        <v>0.08273766918940424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01873948794699992</v>
+        <v>0.03340053089677471</v>
       </c>
       <c r="C65">
-        <v>0.0937551568496485</v>
+        <v>-0.09177076516336011</v>
       </c>
       <c r="D65">
-        <v>-0.04407514210672543</v>
+        <v>0.02267911657996382</v>
       </c>
       <c r="E65">
-        <v>0.02650263072137344</v>
+        <v>0.01756861075733948</v>
       </c>
       <c r="F65">
-        <v>0.01150587172222233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.004637314194906946</v>
+      </c>
+      <c r="G65">
+        <v>-0.01030295625475924</v>
+      </c>
+      <c r="H65">
+        <v>-0.03119940877731635</v>
+      </c>
+      <c r="I65">
+        <v>-0.07660249927599751</v>
+      </c>
+      <c r="J65">
+        <v>-0.01915132461097454</v>
+      </c>
+      <c r="K65">
+        <v>0.08683861369870696</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.00244136685974699</v>
+        <v>0.02443786228485327</v>
       </c>
       <c r="C66">
-        <v>0.1738913218648404</v>
+        <v>-0.1707410701879949</v>
       </c>
       <c r="D66">
-        <v>-0.04733214248052706</v>
+        <v>0.05436804418384221</v>
       </c>
       <c r="E66">
-        <v>0.002882622013751135</v>
+        <v>0.007829909613553744</v>
       </c>
       <c r="F66">
-        <v>0.02914262013084385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01258064964061989</v>
+      </c>
+      <c r="G66">
+        <v>0.008310341309525821</v>
+      </c>
+      <c r="H66">
+        <v>0.05674988191312107</v>
+      </c>
+      <c r="I66">
+        <v>-0.03375409774296934</v>
+      </c>
+      <c r="J66">
+        <v>-0.02777005060467198</v>
+      </c>
+      <c r="K66">
+        <v>0.07098526699547146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02956857440442612</v>
+        <v>0.02117334192900603</v>
       </c>
       <c r="C67">
-        <v>0.02013066756709228</v>
+        <v>-0.05125402919203575</v>
       </c>
       <c r="D67">
-        <v>-0.04361639050037806</v>
+        <v>0.03884042411769174</v>
       </c>
       <c r="E67">
-        <v>0.06350864494655628</v>
+        <v>0.02474867734140939</v>
       </c>
       <c r="F67">
-        <v>0.01681193885825407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01108994229659062</v>
+      </c>
+      <c r="G67">
+        <v>-0.02818608387294507</v>
+      </c>
+      <c r="H67">
+        <v>0.004715374570241227</v>
+      </c>
+      <c r="I67">
+        <v>-0.04110791150157232</v>
+      </c>
+      <c r="J67">
+        <v>-0.07406900208626797</v>
+      </c>
+      <c r="K67">
+        <v>-0.05062400081799919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.297367702436222</v>
+        <v>0.2919680091197404</v>
       </c>
       <c r="C68">
-        <v>-0.009117455446513786</v>
+        <v>0.0835405675537261</v>
       </c>
       <c r="D68">
-        <v>-0.0109514864578079</v>
+        <v>-0.02702421135897138</v>
       </c>
       <c r="E68">
-        <v>-0.03952851804919338</v>
+        <v>-0.01748058548922466</v>
       </c>
       <c r="F68">
-        <v>-0.01275191063438679</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01697865183954133</v>
+      </c>
+      <c r="G68">
+        <v>0.03637069912722517</v>
+      </c>
+      <c r="H68">
+        <v>0.01518122148796087</v>
+      </c>
+      <c r="I68">
+        <v>0.02647149008863422</v>
+      </c>
+      <c r="J68">
+        <v>-0.03262050508126052</v>
+      </c>
+      <c r="K68">
+        <v>-0.04405308710956675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01093389742174657</v>
+        <v>0.01057355572857863</v>
       </c>
       <c r="C69">
-        <v>0.04859907851441697</v>
+        <v>-0.04415800994874751</v>
       </c>
       <c r="D69">
-        <v>-0.04470939556569803</v>
+        <v>0.02694024517099858</v>
       </c>
       <c r="E69">
-        <v>0.03958179063323016</v>
+        <v>0.006082725408001304</v>
       </c>
       <c r="F69">
-        <v>0.006564976114713897</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.009283581218399525</v>
+      </c>
+      <c r="G69">
+        <v>-0.00315456513220322</v>
+      </c>
+      <c r="H69">
+        <v>-0.002693711237168199</v>
+      </c>
+      <c r="I69">
+        <v>-0.01303369906284845</v>
+      </c>
+      <c r="J69">
+        <v>-0.0387063661360782</v>
+      </c>
+      <c r="K69">
+        <v>-0.02760512933488431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.285929932383568</v>
+        <v>0.2734126767130851</v>
       </c>
       <c r="C71">
-        <v>-0.03512055146293051</v>
+        <v>0.08298281943907442</v>
       </c>
       <c r="D71">
-        <v>0.01195715538357128</v>
+        <v>-0.02202891909789839</v>
       </c>
       <c r="E71">
-        <v>-0.03544877324398849</v>
+        <v>0.005794942817289776</v>
       </c>
       <c r="F71">
-        <v>-0.03427962918204788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04587389453851583</v>
+      </c>
+      <c r="G71">
+        <v>0.04923633073444456</v>
+      </c>
+      <c r="H71">
+        <v>0.01595224174388796</v>
+      </c>
+      <c r="I71">
+        <v>0.02908254619993943</v>
+      </c>
+      <c r="J71">
+        <v>-0.04926723082648075</v>
+      </c>
+      <c r="K71">
+        <v>-0.1142366753338646</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02024234798131758</v>
+        <v>0.05857085215102664</v>
       </c>
       <c r="C72">
-        <v>0.1314016898237205</v>
+        <v>-0.1336714670815936</v>
       </c>
       <c r="D72">
-        <v>-0.07392896141014417</v>
+        <v>0.0531935899423444</v>
       </c>
       <c r="E72">
-        <v>0.04274627079440605</v>
+        <v>-0.03576135413977376</v>
       </c>
       <c r="F72">
-        <v>-0.02671952949379117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02063027588014412</v>
+      </c>
+      <c r="G72">
+        <v>-0.02116389965520403</v>
+      </c>
+      <c r="H72">
+        <v>0.02804516694218315</v>
+      </c>
+      <c r="I72">
+        <v>0.01130075396927529</v>
+      </c>
+      <c r="J72">
+        <v>-0.04187472443050062</v>
+      </c>
+      <c r="K72">
+        <v>0.1081000403340713</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09876295697073882</v>
+        <v>0.1604872525146706</v>
       </c>
       <c r="C73">
-        <v>0.1132466587600364</v>
+        <v>-0.1955482291345337</v>
       </c>
       <c r="D73">
-        <v>-0.1057743500805151</v>
+        <v>0.07715765661525574</v>
       </c>
       <c r="E73">
-        <v>0.2376218362593841</v>
+        <v>-0.04211292849797799</v>
       </c>
       <c r="F73">
-        <v>0.256217890103531</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1379133400976271</v>
+      </c>
+      <c r="G73">
+        <v>-0.2021530009902915</v>
+      </c>
+      <c r="H73">
+        <v>-0.3185285647463887</v>
+      </c>
+      <c r="I73">
+        <v>-0.3565110495393035</v>
+      </c>
+      <c r="J73">
+        <v>0.1118687312767939</v>
+      </c>
+      <c r="K73">
+        <v>-0.09916700038855876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01798486644135568</v>
+        <v>0.04055967825714931</v>
       </c>
       <c r="C74">
-        <v>0.08120938405148194</v>
+        <v>-0.09700068533478472</v>
       </c>
       <c r="D74">
-        <v>-0.07402984088318192</v>
+        <v>0.04448661181062068</v>
       </c>
       <c r="E74">
-        <v>0.06114586913191596</v>
+        <v>-0.01908080586410737</v>
       </c>
       <c r="F74">
-        <v>0.01935835191215946</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.005237442097995527</v>
+      </c>
+      <c r="G74">
+        <v>-0.0307119423327527</v>
+      </c>
+      <c r="H74">
+        <v>-0.003474542713610381</v>
+      </c>
+      <c r="I74">
+        <v>0.06357655209789893</v>
+      </c>
+      <c r="J74">
+        <v>-0.01217123428346539</v>
+      </c>
+      <c r="K74">
+        <v>0.01677923913944869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03257367973435851</v>
+        <v>0.06669865132753344</v>
       </c>
       <c r="C75">
-        <v>0.1373079175606848</v>
+        <v>-0.1597096634665348</v>
       </c>
       <c r="D75">
-        <v>-0.05773506008216227</v>
+        <v>0.09041627117237246</v>
       </c>
       <c r="E75">
-        <v>0.1102431625440629</v>
+        <v>-0.03469008058204288</v>
       </c>
       <c r="F75">
-        <v>-0.01086316264212695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02526368372789274</v>
+      </c>
+      <c r="G75">
+        <v>-0.1031373673615454</v>
+      </c>
+      <c r="H75">
+        <v>0.08728954753054512</v>
+      </c>
+      <c r="I75">
+        <v>0.1958555956085689</v>
+      </c>
+      <c r="J75">
+        <v>0.08365127485014746</v>
+      </c>
+      <c r="K75">
+        <v>-0.1533116653679335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.009579051555315162</v>
+        <v>0.04972928314982471</v>
       </c>
       <c r="C76">
-        <v>0.100944500460796</v>
+        <v>-0.126872900697077</v>
       </c>
       <c r="D76">
-        <v>-0.06417134550828395</v>
+        <v>0.07757950254266864</v>
       </c>
       <c r="E76">
-        <v>0.09171939266896341</v>
+        <v>-0.01756368455959133</v>
       </c>
       <c r="F76">
-        <v>0.02802099186305003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05276202604357647</v>
+      </c>
+      <c r="G76">
+        <v>-0.06700352687647333</v>
+      </c>
+      <c r="H76">
+        <v>0.04179230836803292</v>
+      </c>
+      <c r="I76">
+        <v>0.07991369360102378</v>
+      </c>
+      <c r="J76">
+        <v>0.07134071165066697</v>
+      </c>
+      <c r="K76">
+        <v>0.01608961807915398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08220704735196969</v>
+        <v>0.05896645898860209</v>
       </c>
       <c r="C77">
-        <v>0.3358220987078884</v>
+        <v>-0.4057279850882242</v>
       </c>
       <c r="D77">
-        <v>0.8593905552496038</v>
+        <v>-0.8967014385763025</v>
       </c>
       <c r="E77">
-        <v>0.286688011740487</v>
+        <v>-0.02548160869074488</v>
       </c>
       <c r="F77">
-        <v>0.06836457933256464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.002581503505217021</v>
+      </c>
+      <c r="G77">
+        <v>-0.06322912597413091</v>
+      </c>
+      <c r="H77">
+        <v>0.0991313693636138</v>
+      </c>
+      <c r="I77">
+        <v>0.01896477753407666</v>
+      </c>
+      <c r="J77">
+        <v>-0.005976649017484577</v>
+      </c>
+      <c r="K77">
+        <v>-0.0262616749938073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02459161955755607</v>
+        <v>0.03884540283401831</v>
       </c>
       <c r="C78">
-        <v>0.1334944377948464</v>
+        <v>-0.1116134609076892</v>
       </c>
       <c r="D78">
-        <v>-0.1565371071897096</v>
+        <v>0.09166871771048943</v>
       </c>
       <c r="E78">
-        <v>-0.09465236279959639</v>
+        <v>0.03656254491669368</v>
       </c>
       <c r="F78">
-        <v>0.08211387180468395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03961225617261122</v>
+      </c>
+      <c r="G78">
+        <v>0.02210326151611866</v>
+      </c>
+      <c r="H78">
+        <v>0.0304482159356531</v>
+      </c>
+      <c r="I78">
+        <v>0.09022614288198565</v>
+      </c>
+      <c r="J78">
+        <v>-0.04617056774313317</v>
+      </c>
+      <c r="K78">
+        <v>0.1034239352319946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02322899301141712</v>
+        <v>0.05867869357629774</v>
       </c>
       <c r="C79">
-        <v>0.142611751061885</v>
+        <v>-0.1366036996610212</v>
       </c>
       <c r="D79">
-        <v>-0.1056242922234225</v>
+        <v>0.0685908833029955</v>
       </c>
       <c r="E79">
-        <v>0.09891729286147818</v>
+        <v>-0.01004528492231689</v>
       </c>
       <c r="F79">
-        <v>0.04153280210156877</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.05160734385792611</v>
+      </c>
+      <c r="G79">
+        <v>-0.03887915857755999</v>
+      </c>
+      <c r="H79">
+        <v>0.06372714937287442</v>
+      </c>
+      <c r="I79">
+        <v>0.2577134052430424</v>
+      </c>
+      <c r="J79">
+        <v>0.02904295446208366</v>
+      </c>
+      <c r="K79">
+        <v>-0.06163640632436101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007752615504153655</v>
+        <v>0.0209781915135129</v>
       </c>
       <c r="C80">
-        <v>0.05723870455475557</v>
+        <v>-0.04437589518894041</v>
       </c>
       <c r="D80">
-        <v>-0.03116147614472475</v>
+        <v>0.03447136823132299</v>
       </c>
       <c r="E80">
-        <v>-0.03038651568760803</v>
+        <v>0.01745423612253389</v>
       </c>
       <c r="F80">
-        <v>0.01894210025618508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03005564936358163</v>
+      </c>
+      <c r="G80">
+        <v>0.05923213181334973</v>
+      </c>
+      <c r="H80">
+        <v>-0.04059099789489207</v>
+      </c>
+      <c r="I80">
+        <v>-0.07461831552881214</v>
+      </c>
+      <c r="J80">
+        <v>0.007344874399283751</v>
+      </c>
+      <c r="K80">
+        <v>-0.02316050862716475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.0004473425957740235</v>
+        <v>0.01761675876232256</v>
       </c>
       <c r="C81">
-        <v>0.08562973005120153</v>
+        <v>-0.09625265882529728</v>
       </c>
       <c r="D81">
-        <v>-0.05834746586123066</v>
+        <v>0.0575444147418562</v>
       </c>
       <c r="E81">
-        <v>0.08210157741197148</v>
+        <v>-0.007198153448332668</v>
       </c>
       <c r="F81">
-        <v>0.01073783386994666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03510568275120753</v>
+      </c>
+      <c r="G81">
+        <v>-0.02426518365053356</v>
+      </c>
+      <c r="H81">
+        <v>0.03922688665852662</v>
+      </c>
+      <c r="I81">
+        <v>0.1174008506115419</v>
+      </c>
+      <c r="J81">
+        <v>-0.01877969968572964</v>
+      </c>
+      <c r="K81">
+        <v>-0.06023227207202077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01661479019112218</v>
+        <v>0.04905079498103177</v>
       </c>
       <c r="C82">
-        <v>0.07716865437240827</v>
+        <v>-0.1056219597496162</v>
       </c>
       <c r="D82">
-        <v>-0.07071893312952</v>
+        <v>0.06730037069613964</v>
       </c>
       <c r="E82">
-        <v>0.08941281046473801</v>
+        <v>-0.006914348589530271</v>
       </c>
       <c r="F82">
-        <v>0.02908854996041412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.0622756349047091</v>
+      </c>
+      <c r="G82">
+        <v>-0.05134907517925088</v>
+      </c>
+      <c r="H82">
+        <v>0.05017221358714837</v>
+      </c>
+      <c r="I82">
+        <v>0.07235830012496663</v>
+      </c>
+      <c r="J82">
+        <v>0.0484024996902565</v>
+      </c>
+      <c r="K82">
+        <v>-0.007922501293045454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.01513911269594771</v>
+        <v>-0.0002041960683888134</v>
       </c>
       <c r="C83">
-        <v>0.005099191485532153</v>
+        <v>0.02319576442518498</v>
       </c>
       <c r="D83">
-        <v>0.1189984955715051</v>
+        <v>-0.0566698651457084</v>
       </c>
       <c r="E83">
-        <v>-0.4899989032828316</v>
+        <v>-0.03123082600811687</v>
       </c>
       <c r="F83">
-        <v>0.7627112915873161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7495374915041421</v>
+      </c>
+      <c r="G83">
+        <v>0.5990197580089683</v>
+      </c>
+      <c r="H83">
+        <v>0.03261730930244876</v>
+      </c>
+      <c r="I83">
+        <v>-0.01821657874477655</v>
+      </c>
+      <c r="J83">
+        <v>0.1221318977860052</v>
+      </c>
+      <c r="K83">
+        <v>0.06602771760725661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.008935236826896268</v>
+        <v>0.01367937944987504</v>
       </c>
       <c r="C84">
-        <v>0.1000608346270849</v>
+        <v>-0.05801656743334856</v>
       </c>
       <c r="D84">
-        <v>-0.0171753900207077</v>
+        <v>0.08410877751053128</v>
       </c>
       <c r="E84">
-        <v>-0.06316019375524193</v>
+        <v>0.2345682221293792</v>
       </c>
       <c r="F84">
-        <v>-0.1485712307324661</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1403892105917671</v>
+      </c>
+      <c r="G84">
+        <v>0.09308303471332907</v>
+      </c>
+      <c r="H84">
+        <v>0.6453383836090032</v>
+      </c>
+      <c r="I84">
+        <v>-0.4116531226536626</v>
+      </c>
+      <c r="J84">
+        <v>0.4740319698763086</v>
+      </c>
+      <c r="K84">
+        <v>-0.1361881803916692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.000536035385117885</v>
+        <v>0.03433179801300346</v>
       </c>
       <c r="C85">
-        <v>0.09603233670211377</v>
+        <v>-0.1154120277980146</v>
       </c>
       <c r="D85">
-        <v>-0.05941468780696892</v>
+        <v>0.08208406114434806</v>
       </c>
       <c r="E85">
-        <v>0.08564595481769656</v>
+        <v>-0.02117980590719138</v>
       </c>
       <c r="F85">
-        <v>0.02835538579560189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07783463461225947</v>
+      </c>
+      <c r="G85">
+        <v>-0.09975650076224327</v>
+      </c>
+      <c r="H85">
+        <v>0.07307520775139628</v>
+      </c>
+      <c r="I85">
+        <v>0.2202837108172458</v>
+      </c>
+      <c r="J85">
+        <v>0.1092915961380075</v>
+      </c>
+      <c r="K85">
+        <v>-0.08587869987274746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01479425271007729</v>
+        <v>0.01569943795702258</v>
       </c>
       <c r="C86">
-        <v>0.1056744562101038</v>
+        <v>-0.07869622728453891</v>
       </c>
       <c r="D86">
-        <v>-0.003397011013786187</v>
+        <v>0.03749449512484285</v>
       </c>
       <c r="E86">
-        <v>-0.02641112884455937</v>
+        <v>0.05282774242723429</v>
       </c>
       <c r="F86">
-        <v>-0.04497318755102767</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03636116931957891</v>
+      </c>
+      <c r="G86">
+        <v>0.07890640320570624</v>
+      </c>
+      <c r="H86">
+        <v>-0.06825090652295814</v>
+      </c>
+      <c r="I86">
+        <v>0.08676419329932875</v>
+      </c>
+      <c r="J86">
+        <v>-0.04188149195900944</v>
+      </c>
+      <c r="K86">
+        <v>-0.1074559359278214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.007859415712615626</v>
+        <v>0.02794765290917679</v>
       </c>
       <c r="C87">
-        <v>0.1619906122338897</v>
+        <v>-0.1170499383651708</v>
       </c>
       <c r="D87">
-        <v>-0.02742989750913305</v>
+        <v>0.02070875193161505</v>
       </c>
       <c r="E87">
-        <v>-0.085564954492937</v>
+        <v>-0.03297098279759917</v>
       </c>
       <c r="F87">
-        <v>-0.0699302588153293</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02636116520179129</v>
+      </c>
+      <c r="G87">
+        <v>0.03856063203161453</v>
+      </c>
+      <c r="H87">
+        <v>0.03020267980118073</v>
+      </c>
+      <c r="I87">
+        <v>0.002287610674150582</v>
+      </c>
+      <c r="J87">
+        <v>-0.01363981242153352</v>
+      </c>
+      <c r="K87">
+        <v>0.08501538226401831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.006916504972189854</v>
+        <v>0.0401333193798882</v>
       </c>
       <c r="C88">
-        <v>0.03469604953368533</v>
+        <v>-0.05991495061884714</v>
       </c>
       <c r="D88">
-        <v>-0.03829086870633478</v>
+        <v>0.0376356424168906</v>
       </c>
       <c r="E88">
-        <v>0.0455768844989053</v>
+        <v>-0.01746985556112794</v>
       </c>
       <c r="F88">
-        <v>0.01044096681841536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005085042265943796</v>
+      </c>
+      <c r="G88">
+        <v>-0.02119648173897421</v>
+      </c>
+      <c r="H88">
+        <v>-0.01380457436568302</v>
+      </c>
+      <c r="I88">
+        <v>-0.002372523329506615</v>
+      </c>
+      <c r="J88">
+        <v>-0.01965234702708149</v>
+      </c>
+      <c r="K88">
+        <v>0.007248540665673864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4156649289024482</v>
+        <v>0.388833223954031</v>
       </c>
       <c r="C89">
-        <v>-0.06399036145309953</v>
+        <v>0.1282255409368989</v>
       </c>
       <c r="D89">
-        <v>-0.08376769604273555</v>
+        <v>-0.03578117090377734</v>
       </c>
       <c r="E89">
-        <v>-0.07919236190196939</v>
+        <v>-0.0266326993697098</v>
       </c>
       <c r="F89">
-        <v>-0.06827142760081209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06673784496797999</v>
+      </c>
+      <c r="G89">
+        <v>0.009622060335605824</v>
+      </c>
+      <c r="H89">
+        <v>0.07395037200508792</v>
+      </c>
+      <c r="I89">
+        <v>-0.0279344781678945</v>
+      </c>
+      <c r="J89">
+        <v>0.01764642238120761</v>
+      </c>
+      <c r="K89">
+        <v>0.7427415538803788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3047570670732081</v>
+        <v>0.3141679015037585</v>
       </c>
       <c r="C90">
-        <v>-0.01560057871946145</v>
+        <v>0.08698544756504213</v>
       </c>
       <c r="D90">
-        <v>0.01324101801416672</v>
+        <v>-0.02368536773535286</v>
       </c>
       <c r="E90">
-        <v>-0.05031653476843331</v>
+        <v>0.0189978708572106</v>
       </c>
       <c r="F90">
-        <v>0.01976502734375441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01440635114554419</v>
+      </c>
+      <c r="G90">
+        <v>0.03162512615594722</v>
+      </c>
+      <c r="H90">
+        <v>0.004346852706256964</v>
+      </c>
+      <c r="I90">
+        <v>-0.003225849307148761</v>
+      </c>
+      <c r="J90">
+        <v>-0.003078662690166389</v>
+      </c>
+      <c r="K90">
+        <v>-0.1106627674284273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02711068766243926</v>
+        <v>0.05875935373530834</v>
       </c>
       <c r="C91">
-        <v>0.07643610545829652</v>
+        <v>-0.07790393938446312</v>
       </c>
       <c r="D91">
-        <v>-0.06006539770424481</v>
+        <v>0.05593186161006407</v>
       </c>
       <c r="E91">
-        <v>0.03840916840798316</v>
+        <v>-0.01961559490039086</v>
       </c>
       <c r="F91">
-        <v>0.05047689009675194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06205045598029812</v>
+      </c>
+      <c r="G91">
+        <v>-0.011801503820269</v>
+      </c>
+      <c r="H91">
+        <v>0.005138231908540984</v>
+      </c>
+      <c r="I91">
+        <v>0.09374027637565631</v>
+      </c>
+      <c r="J91">
+        <v>0.05234349000187608</v>
+      </c>
+      <c r="K91">
+        <v>-0.02037408589053901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.37425784801856</v>
+        <v>0.3493560128962735</v>
       </c>
       <c r="C92">
-        <v>-0.05824661700482575</v>
+        <v>0.1234737719089921</v>
       </c>
       <c r="D92">
-        <v>0.01919823280705483</v>
+        <v>-0.05120623578382545</v>
       </c>
       <c r="E92">
-        <v>0.01224778055651029</v>
+        <v>-0.01246071632726206</v>
       </c>
       <c r="F92">
-        <v>-0.1131520980278418</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.05866291073502807</v>
+      </c>
+      <c r="G92">
+        <v>0.01141681428338931</v>
+      </c>
+      <c r="H92">
+        <v>0.02626928508193331</v>
+      </c>
+      <c r="I92">
+        <v>0.01955981700803375</v>
+      </c>
+      <c r="J92">
+        <v>-0.06369937696316533</v>
+      </c>
+      <c r="K92">
+        <v>-0.1337563669263497</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3144250099336411</v>
+        <v>0.3062679736461827</v>
       </c>
       <c r="C93">
-        <v>-0.07526055358840424</v>
+        <v>0.1265361837762068</v>
       </c>
       <c r="D93">
-        <v>-0.0007012506167916725</v>
+        <v>-0.009899928437581121</v>
       </c>
       <c r="E93">
-        <v>-0.05010672413507368</v>
+        <v>0.0296660014323505</v>
       </c>
       <c r="F93">
-        <v>-0.02732680930988586</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03157983625873191</v>
+      </c>
+      <c r="G93">
+        <v>0.04020509347260792</v>
+      </c>
+      <c r="H93">
+        <v>0.01448494630162275</v>
+      </c>
+      <c r="I93">
+        <v>0.04941864485892705</v>
+      </c>
+      <c r="J93">
+        <v>-0.02367840523833012</v>
+      </c>
+      <c r="K93">
+        <v>-0.1367082876558299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.02277546890425853</v>
+        <v>0.08731011801135101</v>
       </c>
       <c r="C94">
-        <v>0.2019455898790591</v>
+        <v>-0.171468795100744</v>
       </c>
       <c r="D94">
-        <v>-0.08724345076118763</v>
+        <v>0.1079718121124181</v>
       </c>
       <c r="E94">
-        <v>0.08291695163424814</v>
+        <v>-0.02041974469428318</v>
       </c>
       <c r="F94">
-        <v>-0.06427991545550502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.0671978527709485</v>
+      </c>
+      <c r="G94">
+        <v>-0.07952847195296336</v>
+      </c>
+      <c r="H94">
+        <v>0.05996885703813742</v>
+      </c>
+      <c r="I94">
+        <v>0.440370845414834</v>
+      </c>
+      <c r="J94">
+        <v>0.304708138332655</v>
+      </c>
+      <c r="K94">
+        <v>0.01768044612729614</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02792716431022791</v>
+        <v>0.04582758123147998</v>
       </c>
       <c r="C95">
-        <v>0.1260740186163381</v>
+        <v>-0.1337746881192776</v>
       </c>
       <c r="D95">
-        <v>-0.06338357565373538</v>
+        <v>0.06871262929006786</v>
       </c>
       <c r="E95">
-        <v>0.146152970469017</v>
+        <v>-0.02168535379553674</v>
       </c>
       <c r="F95">
-        <v>0.09180066871336916</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01622416733033093</v>
+      </c>
+      <c r="G95">
+        <v>-0.08293502199600844</v>
+      </c>
+      <c r="H95">
+        <v>0.1019694534345856</v>
+      </c>
+      <c r="I95">
+        <v>-0.05209794887882967</v>
+      </c>
+      <c r="J95">
+        <v>0.03861617897049395</v>
+      </c>
+      <c r="K95">
+        <v>0.1210509653581689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0008130501954024219</v>
+        <v>0.02350683373711297</v>
       </c>
       <c r="C97">
-        <v>-0.0004410034150905059</v>
+        <v>-0.02606978524218662</v>
       </c>
       <c r="D97">
-        <v>-9.757335013200555e-05</v>
+        <v>0.002059673619722202</v>
       </c>
       <c r="E97">
-        <v>0.002720216318151511</v>
+        <v>0.05027903904983715</v>
       </c>
       <c r="F97">
-        <v>-0.003551044442252437</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01364407543724015</v>
+      </c>
+      <c r="G97">
+        <v>-0.0180534010962661</v>
+      </c>
+      <c r="H97">
+        <v>-0.02243853263235462</v>
+      </c>
+      <c r="I97">
+        <v>0.001646372087762077</v>
+      </c>
+      <c r="J97">
+        <v>-0.03292656342714786</v>
+      </c>
+      <c r="K97">
+        <v>0.0578403117213888</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09429668157923964</v>
+        <v>0.1397801520375509</v>
       </c>
       <c r="C98">
-        <v>0.1595387791055941</v>
+        <v>-0.1597033124528325</v>
       </c>
       <c r="D98">
-        <v>-0.1301699188553062</v>
+        <v>0.08418965020665464</v>
       </c>
       <c r="E98">
-        <v>0.1658798533088814</v>
+        <v>-0.05524573182044755</v>
       </c>
       <c r="F98">
-        <v>0.1703109068778517</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1484385397370048</v>
+      </c>
+      <c r="G98">
+        <v>-0.1688959863232529</v>
+      </c>
+      <c r="H98">
+        <v>-0.2932088360645651</v>
+      </c>
+      <c r="I98">
+        <v>-0.295372942254804</v>
+      </c>
+      <c r="J98">
+        <v>0.1498360164866814</v>
+      </c>
+      <c r="K98">
+        <v>-0.1147278582129544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02788767138674142</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.05475967379114798</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.02124999309130385</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9449949796558897</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1199754351073093</v>
+      </c>
+      <c r="G99">
+        <v>-0.09059296364830606</v>
+      </c>
+      <c r="H99">
+        <v>-0.1853721551748138</v>
+      </c>
+      <c r="I99">
+        <v>0.07460628789505179</v>
+      </c>
+      <c r="J99">
+        <v>-0.05869681623754885</v>
+      </c>
+      <c r="K99">
+        <v>0.06910856095972225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.007514577492201261</v>
+        <v>0.01786523677951034</v>
       </c>
       <c r="C101">
-        <v>0.07882265250213105</v>
+        <v>-0.08086070842430419</v>
       </c>
       <c r="D101">
-        <v>-0.05494853893236869</v>
+        <v>0.04669142249628647</v>
       </c>
       <c r="E101">
-        <v>0.02315329034238226</v>
+        <v>-0.01099162963025387</v>
       </c>
       <c r="F101">
-        <v>0.03725728719872154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03957089463662122</v>
+      </c>
+      <c r="G101">
+        <v>0.02318480061350207</v>
+      </c>
+      <c r="H101">
+        <v>0.1208594128447468</v>
+      </c>
+      <c r="I101">
+        <v>-0.1285222319806137</v>
+      </c>
+      <c r="J101">
+        <v>-0.2585819142099786</v>
+      </c>
+      <c r="K101">
+        <v>-0.004706542185543929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.001228224936010251</v>
+        <v>-8.484957970328254e-05</v>
       </c>
       <c r="C102">
-        <v>0.01064347832912745</v>
+        <v>-0.005593252209558087</v>
       </c>
       <c r="D102">
-        <v>-0.001721937764911158</v>
+        <v>-0.0001709189567394779</v>
       </c>
       <c r="E102">
-        <v>0.01792114468922711</v>
+        <v>-0.002571362863884352</v>
       </c>
       <c r="F102">
-        <v>0.01796571437712054</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.008386892351951431</v>
+      </c>
+      <c r="G102">
+        <v>-0.004750391224976667</v>
+      </c>
+      <c r="H102">
+        <v>0.001326152116707667</v>
+      </c>
+      <c r="I102">
+        <v>-0.001139855408044632</v>
+      </c>
+      <c r="J102">
+        <v>-0.001043671112183015</v>
+      </c>
+      <c r="K102">
+        <v>0.02047759271509125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
